--- a/examples/programs/program_simple_sequential.xlsx
+++ b/examples/programs/program_simple_sequential.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,21 +441,11 @@
           <t>program_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>SIMPLE_SEQUENTIAL_2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sequential</t>
         </is>
       </c>
     </row>
@@ -470,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,21 +484,6 @@
           <t>product_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>claim_basis</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>inception_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>expiry_date</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,26 +499,11 @@
           <t>quote_share</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>risk_attaching</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XOL_500K_1M</t>
+          <t>XOL_0.5M_1M</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -552,21 +512,6 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>risk_attaching</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
         </is>
       </c>
     </row>
@@ -581,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,21 +603,6 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>include</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>claim_basis</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>inception_date</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>expiry_date</t>
         </is>
       </c>
     </row>
@@ -697,22 +627,19 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XOL_500K_1M</t>
+          <t>XOL_0.5M_1M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>500000</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -724,9 +651,6 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
